--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2527428.847911965</v>
+        <v>2525052.220964599</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078156</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>339.9360784236508</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.6867690249414</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>115.7664925502705</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>363.5377921948932</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>319.3566083590027</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>69.96467267443565</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>189.9578218484141</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>306.8754044652933</v>
       </c>
       <c r="E8" t="n">
-        <v>52.99989981182406</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>69.42366099135546</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>115.5971804138455</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.5667167289874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.07546534818415</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>100.2041656279966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712923</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>178.8757728051413</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057939</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1918.618935688523</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1549.656418748111</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.390720141361</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>805.6024675431165</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>394.616562753509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>2308.758267664335</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1918.618935688523</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260733</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>934.7929217761711</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>765.8567388482642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>615.7400994359284</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>467.8270058535353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>320.9370583556249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>152.9505936639035</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>152.9505936639035</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1416.9268625292</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1193.948381723935</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>904.8300442277731</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.233965749941</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y4" t="n">
-        <v>1116.441386606411</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1897.831592188878</v>
+        <v>1110.088185601308</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.869075248467</v>
+        <v>741.1256686608961</v>
       </c>
       <c r="D5" t="n">
-        <v>1170.603376641716</v>
+        <v>741.1256686608961</v>
       </c>
       <c r="E5" t="n">
-        <v>784.815124043472</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F5" t="n">
-        <v>373.8292192538644</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800309</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800309</v>
@@ -4565,22 +4565,22 @@
         <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532449</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532449</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188878</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188878</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="X5" t="n">
-        <v>1897.831592188878</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="Y5" t="n">
-        <v>1897.831592188878</v>
+        <v>1110.088185601308</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4644,28 @@
         <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100995</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458.8408207274654</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>289.9046377995585</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>289.9046377995585</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>289.9046377995585</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="F7" t="n">
-        <v>289.9046377995585</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G7" t="n">
-        <v>121.9181731078371</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800309</v>
@@ -4723,7 +4723,7 @@
         <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1341.986125864408</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="V7" t="n">
-        <v>1150.699034738196</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="W7" t="n">
-        <v>861.2818647012352</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X7" t="n">
-        <v>861.2818647012352</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y7" t="n">
-        <v>640.4892855577051</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>850.6201014348517</v>
+        <v>1200.95620828083</v>
       </c>
       <c r="C8" t="n">
-        <v>481.65758449444</v>
+        <v>831.9936913404183</v>
       </c>
       <c r="D8" t="n">
-        <v>123.3918858876895</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251363</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331015</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764996</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.593687005979</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.593687005979</v>
+        <v>1977.695380320763</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.825031735865</v>
+        <v>1977.695380320763</v>
       </c>
       <c r="X8" t="n">
-        <v>1627.359273474785</v>
+        <v>1977.695380320763</v>
       </c>
       <c r="Y8" t="n">
-        <v>1237.219941498973</v>
+        <v>1587.556048344952</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057896</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>815.1145481251085</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4960,16 +4960,16 @@
         <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,7 +4984,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
         <v>1337.233965749941</v>
@@ -4993,19 +4993,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.130574852398</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465112</v>
+        <v>570.452659242627</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>570.452659242627</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800309</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.5558870561822</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>388.6197041282753</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,7 +5355,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5841,16 +5841,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7020,10 +7020,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2266.280484787188</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2046.67901981013</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,10 +7199,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7625,40 +7625,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,19 +7731,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8061,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.454437538929426</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>294.8344935184731</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>162.0073097921341</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039156</v>
       </c>
       <c r="P9" t="n">
-        <v>193.3273467878343</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.26526345294985</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.5400076700282</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013275</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580201</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.15051319650334</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.2411592656445</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793677.3183128914</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
     <row r="13">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448204</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
@@ -26344,7 +26344,7 @@
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26353,7 +26353,7 @@
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.36846171966</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719695</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719692</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
+        <v>7507.368461719674</v>
+      </c>
+      <c r="L4" t="n">
         <v>7507.36846171968</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719709</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719729</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-704496.0479176886</v>
+        <v>-704496.047917688</v>
       </c>
       <c r="C6" t="n">
-        <v>410255.7356582313</v>
+        <v>410255.7356582308</v>
       </c>
       <c r="D6" t="n">
         <v>410255.7356582306</v>
       </c>
       <c r="E6" t="n">
-        <v>9423.274849582231</v>
+        <v>9388.536924146538</v>
       </c>
       <c r="F6" t="n">
-        <v>516908.7164741281</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="G6" t="n">
-        <v>516908.7164741279</v>
+        <v>516873.978548692</v>
       </c>
       <c r="H6" t="n">
-        <v>516908.7164741281</v>
+        <v>516873.9785486923</v>
       </c>
       <c r="I6" t="n">
-        <v>516908.7164741279</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="J6" t="n">
-        <v>349303.5386641455</v>
+        <v>349268.8007387096</v>
       </c>
       <c r="K6" t="n">
-        <v>516908.716474128</v>
+        <v>516873.9785486924</v>
       </c>
       <c r="L6" t="n">
-        <v>516908.716474128</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="M6" t="n">
-        <v>384301.4227452013</v>
+        <v>384266.6848197655</v>
       </c>
       <c r="N6" t="n">
-        <v>516908.716474128</v>
+        <v>516873.9785486924</v>
       </c>
       <c r="O6" t="n">
-        <v>516908.716474128</v>
+        <v>516873.9785486924</v>
       </c>
       <c r="P6" t="n">
-        <v>516908.716474128</v>
+        <v>516873.9785486921</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.784417372699</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>71.61162434930316</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>4.109826178959167</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>78.89596781146703</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.39257787736858</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>92.19109441395125</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>77.28683648069322</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.704638513323431</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>47.80763715538967</v>
       </c>
       <c r="E8" t="n">
-        <v>328.9304702604377</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>216.8034931298452</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>110.1124749751916</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,7 +31279,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31297,7 +31297,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31312,13 +31312,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31367,22 +31367,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31449,10 +31449,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31467,13 +31467,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>189.0011860883002</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>538.585383513313</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>241.387751759078</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,22 +32789,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33740,13 +33740,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,31 +33971,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34451,13 +34451,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>304.1347981767797</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>544.5140226420053</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34945,7 +34945,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>528.9386420741745</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35100,7 +35100,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35109,7 +35109,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>522.0158803980275</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="P9" t="n">
-        <v>443.0068759113666</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>57.65947400496688</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912947</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.5501250924113</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,10 +36139,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,31 +37619,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
